--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.63202046858476</v>
+        <v>84.74236973624218</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.37833470367404</v>
+        <v>115.9482488425774</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.89380591794892</v>
+        <v>104.8823107074611</v>
       </c>
       <c r="AD2" t="n">
-        <v>72632.02046858476</v>
+        <v>84742.36973624218</v>
       </c>
       <c r="AE2" t="n">
-        <v>99378.33470367405</v>
+        <v>115948.2488425774</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.554916847221826e-06</v>
+        <v>1.397857415360307e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.011458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89893.80591794892</v>
+        <v>104882.3107074611</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.02344792486375</v>
+        <v>60.21904853854177</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.70780009577282</v>
+        <v>82.3943588873254</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.43673987612296</v>
+        <v>74.5307569163474</v>
       </c>
       <c r="AD3" t="n">
-        <v>48023.44792486375</v>
+        <v>60219.04853854177</v>
       </c>
       <c r="AE3" t="n">
-        <v>65707.80009577282</v>
+        <v>82394.35888732539</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.205307375590345e-06</v>
+        <v>1.703222872713913e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.651041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>59436.73987612296</v>
+        <v>74530.7569163474</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.77955101263044</v>
+        <v>59.54326314534751</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.374089580483</v>
+        <v>81.46971949881006</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.13487822404662</v>
+        <v>73.69436381333215</v>
       </c>
       <c r="AD2" t="n">
-        <v>47779.55101263044</v>
+        <v>59543.26314534751</v>
       </c>
       <c r="AE2" t="n">
-        <v>65374.089580483</v>
+        <v>81469.71949881007</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.016591441247682e-06</v>
+        <v>1.718701483920264e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.74375</v>
       </c>
       <c r="AH2" t="n">
-        <v>59134.87822404662</v>
+        <v>73694.36381333215</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.30186730821422</v>
+        <v>59.06557944093129</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.72050166218334</v>
+        <v>80.81613158051042</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.54366781935287</v>
+        <v>73.10315340863839</v>
       </c>
       <c r="AD3" t="n">
-        <v>47301.86730821422</v>
+        <v>59065.57944093129</v>
       </c>
       <c r="AE3" t="n">
-        <v>64720.50166218333</v>
+        <v>80816.13158051041</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.120873982102336e-06</v>
+        <v>1.738579345624628e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.723958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>58543.66781935287</v>
+        <v>73103.15340863839</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.731365483134</v>
+        <v>73.10955662830416</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.83182176651599</v>
+        <v>100.0317207448103</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.64015316285858</v>
+        <v>90.48483371235241</v>
       </c>
       <c r="AD2" t="n">
-        <v>62731.365483134</v>
+        <v>73109.55662830416</v>
       </c>
       <c r="AE2" t="n">
-        <v>85831.82176651599</v>
+        <v>100031.7207448103</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.656119437946312e-06</v>
+        <v>1.630553077390362e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77640.15316285858</v>
+        <v>90484.83371235241</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.53303102814193</v>
+        <v>70.30594141139909</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.40503417889757</v>
+        <v>96.19569071826872</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.06743091692866</v>
+        <v>87.01490900764078</v>
       </c>
       <c r="AD2" t="n">
-        <v>48533.03102814194</v>
+        <v>70305.94141139909</v>
       </c>
       <c r="AE2" t="n">
-        <v>66405.03417889756</v>
+        <v>96195.69071826873</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.465294807494288e-06</v>
+        <v>1.718747517965867e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.982291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60067.43091692866</v>
+        <v>87014.90900764079</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.54980809800735</v>
+        <v>88.55744383742241</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.79287164375346</v>
+        <v>121.1682015370002</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.84141161321875</v>
+        <v>109.6040784429795</v>
       </c>
       <c r="AD2" t="n">
-        <v>68549.80809800734</v>
+        <v>88557.44383742241</v>
       </c>
       <c r="AE2" t="n">
-        <v>93792.87164375346</v>
+        <v>121168.2015370002</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.722172140788299e-06</v>
+        <v>1.496896435570802e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.710416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84841.41161321875</v>
+        <v>109604.0784429795</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.27980023513228</v>
+        <v>61.15703056272396</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.4267967530335</v>
+        <v>83.67774727365723</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.99167790504216</v>
+        <v>75.69166051633505</v>
       </c>
       <c r="AD2" t="n">
-        <v>49279.80023513228</v>
+        <v>61157.03056272396</v>
       </c>
       <c r="AE2" t="n">
-        <v>67426.7967530335</v>
+        <v>83677.74727365724</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.831352910573168e-06</v>
+        <v>1.669800122809822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.763541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>60991.67790504216</v>
+        <v>75691.66051633505</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.51217793574472</v>
+        <v>59.38940826333639</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.00825794102049</v>
+        <v>81.25920846164422</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.80396104280636</v>
+        <v>73.50394365409925</v>
       </c>
       <c r="AD3" t="n">
-        <v>47512.17793574472</v>
+        <v>59389.40826333639</v>
       </c>
       <c r="AE3" t="n">
-        <v>65008.25794102049</v>
+        <v>81259.20846164422</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.143783201182448e-06</v>
+        <v>1.728873307055951e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.704166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>58803.96104280636</v>
+        <v>73503.94365409925</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.60895951767712</v>
+        <v>94.4086380110268</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7657110958933</v>
+        <v>129.1740635417903</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7171941071272</v>
+        <v>116.8458722143329</v>
       </c>
       <c r="AD2" t="n">
-        <v>84608.95951767713</v>
+        <v>94408.63801102679</v>
       </c>
       <c r="AE2" t="n">
-        <v>115765.7110958933</v>
+        <v>129174.0635417903</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.034711068579244e-06</v>
+        <v>1.383497793072468e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.089583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>104717.1941071272</v>
+        <v>116845.8722143329</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.46960058883801</v>
+        <v>58.86489125549485</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.95000173660279</v>
+        <v>80.54154115145853</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.75126472877518</v>
+        <v>72.85476950474505</v>
       </c>
       <c r="AD2" t="n">
-        <v>47469.60058883801</v>
+        <v>58864.89125549485</v>
       </c>
       <c r="AE2" t="n">
-        <v>64950.00173660279</v>
+        <v>80541.54115145853</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.879857033099125e-06</v>
+        <v>1.740439706583455e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.823958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>58751.26472877518</v>
+        <v>72854.76950474505</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.34870730970015</v>
+        <v>58.743997976357</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.7845902186514</v>
+        <v>80.37612963350715</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.60163985394049</v>
+        <v>72.70514462991036</v>
       </c>
       <c r="AD3" t="n">
-        <v>47348.70730970016</v>
+        <v>58743.997976357</v>
       </c>
       <c r="AE3" t="n">
-        <v>64784.59021865141</v>
+        <v>80376.12963350715</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.924949024547036e-06</v>
+        <v>1.74927767459041e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.814583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>58601.63985394049</v>
+        <v>72705.14462991037</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.48520068795909</v>
+        <v>59.13107795396351</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.97134648044803</v>
+        <v>80.9057495356315</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.77057236022537</v>
+        <v>73.18421835190236</v>
       </c>
       <c r="AD2" t="n">
-        <v>47485.20068795909</v>
+        <v>59131.07795396351</v>
       </c>
       <c r="AE2" t="n">
-        <v>64971.34648044803</v>
+        <v>80905.7495356315</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.009301894195633e-06</v>
+        <v>1.732221251177198e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.761458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>58770.57236022537</v>
+        <v>73184.21835190235</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.30296359057412</v>
+        <v>58.94884085657853</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.72200164407272</v>
+        <v>80.65640469925619</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.54502464507597</v>
+        <v>72.95867063675294</v>
       </c>
       <c r="AD3" t="n">
-        <v>47302.96359057412</v>
+        <v>58948.84085657854</v>
       </c>
       <c r="AE3" t="n">
-        <v>64722.00164407272</v>
+        <v>80656.40469925619</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.062166946909477e-06</v>
+        <v>1.742385631151469e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.751041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>58545.02464507597</v>
+        <v>72958.67063675294</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.07221669688023</v>
+        <v>67.16507213624961</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.35223649937203</v>
+        <v>91.89821481063842</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.1607248054172</v>
+        <v>83.12757816908801</v>
       </c>
       <c r="AD2" t="n">
-        <v>55072.21669688023</v>
+        <v>67165.07213624961</v>
       </c>
       <c r="AE2" t="n">
-        <v>75352.23649937203</v>
+        <v>91898.21481063843</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.104989730896147e-06</v>
+        <v>1.509898113416996e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.889583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68160.72480541721</v>
+        <v>83127.57816908801</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.94381709464822</v>
+        <v>60.0366725340176</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.5988456808077</v>
+        <v>82.14482399207409</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.33818391760358</v>
+        <v>74.30503728127438</v>
       </c>
       <c r="AD3" t="n">
-        <v>47943.81709464823</v>
+        <v>60036.67253401761</v>
       </c>
       <c r="AE3" t="n">
-        <v>65598.8456808077</v>
+        <v>82144.82399207409</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.169342211477934e-06</v>
+        <v>1.708178907816405e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.670833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>59338.18391760358</v>
+        <v>74305.03728127437</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.14756193584342</v>
+        <v>59.26804542495231</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.87761836111883</v>
+        <v>81.09315447201664</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.59035092456582</v>
+        <v>73.35373762418344</v>
       </c>
       <c r="AD2" t="n">
-        <v>48147.56193584342</v>
+        <v>59268.04542495231</v>
       </c>
       <c r="AE2" t="n">
-        <v>65877.61836111883</v>
+        <v>81093.15447201664</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.617386202090435e-06</v>
+        <v>1.727352784879665e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.922916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>59590.35092456582</v>
+        <v>73353.73762418344</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.07402265152006</v>
+        <v>59.19450614062896</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.77699866798341</v>
+        <v>80.99253477888124</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.49933423372259</v>
+        <v>73.2627209333402</v>
       </c>
       <c r="AD3" t="n">
-        <v>48074.02265152006</v>
+        <v>59194.50614062896</v>
       </c>
       <c r="AE3" t="n">
-        <v>65776.99866798341</v>
+        <v>80992.53477888124</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.656521429636481e-06</v>
+        <v>1.735197430889862e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.914583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>59499.33423372259</v>
+        <v>73262.7209333402</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.21055762923766</v>
+        <v>71.77055529008899</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.75098536750878</v>
+        <v>98.19964004129535</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.75790886929973</v>
+        <v>88.82760421983892</v>
       </c>
       <c r="AD2" t="n">
-        <v>61210.55762923766</v>
+        <v>71770.55529008899</v>
       </c>
       <c r="AE2" t="n">
-        <v>83750.98536750878</v>
+        <v>98199.64004129535</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.989957402120584e-06</v>
+        <v>1.67154905605286e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.160416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>75757.90886929973</v>
+        <v>88827.60421983892</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.97749582680916</v>
+        <v>75.15762968368243</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.90507639500798</v>
+        <v>102.8339846537838</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.42010068294825</v>
+        <v>93.01965348685643</v>
       </c>
       <c r="AD2" t="n">
-        <v>64977.49582680916</v>
+        <v>75157.62968368243</v>
       </c>
       <c r="AE2" t="n">
-        <v>88905.07639500799</v>
+        <v>102833.9846537838</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.246808782139901e-06</v>
+        <v>1.575351708410392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.464583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80420.10068294825</v>
+        <v>93019.65348685643</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.46935356356984</v>
+        <v>114.4941082456507</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.6253813562465</v>
+        <v>156.6558900251974</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.1586782935152</v>
+        <v>141.704871749158</v>
       </c>
       <c r="AD2" t="n">
-        <v>95469.35356356984</v>
+        <v>114494.1082456507</v>
       </c>
       <c r="AE2" t="n">
-        <v>130625.3813562465</v>
+        <v>156655.8900251974</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.126541852949908e-06</v>
+        <v>1.219361802687086e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.738541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>118158.6782935152</v>
+        <v>141704.871749158</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.67453462465706</v>
+        <v>59.19779092581049</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.23040152546184</v>
+        <v>80.99702916688108</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.00490355532919</v>
+        <v>73.26678638325728</v>
       </c>
       <c r="AD2" t="n">
-        <v>47674.53462465706</v>
+        <v>59197.79092581048</v>
       </c>
       <c r="AE2" t="n">
-        <v>65230.40152546184</v>
+        <v>80997.02916688108</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.91382761134793e-06</v>
+        <v>1.729797949646706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.797916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>59004.90355532919</v>
+        <v>73266.78638325728</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.53068604650828</v>
+        <v>59.0539423476617</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.0335815546874</v>
+        <v>80.80020919610665</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.82686780632683</v>
+        <v>73.08875063425492</v>
       </c>
       <c r="AD3" t="n">
-        <v>47530.68604650828</v>
+        <v>59053.9423476617</v>
       </c>
       <c r="AE3" t="n">
-        <v>65033.58155468741</v>
+        <v>80800.20919610665</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.962450447570091e-06</v>
+        <v>1.739233591221827e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.788541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>58826.86780632683</v>
+        <v>73088.75063425492</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.16382090733789</v>
+        <v>63.15065161146219</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.00459695386985</v>
+        <v>86.40550754489283</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.32345647267684</v>
+        <v>78.15908717572037</v>
       </c>
       <c r="AD2" t="n">
-        <v>51163.82090733789</v>
+        <v>63150.65161146219</v>
       </c>
       <c r="AE2" t="n">
-        <v>70004.59695386986</v>
+        <v>86405.50754489283</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.589054844178466e-06</v>
+        <v>1.611643576616948e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.797916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63323.45647267684</v>
+        <v>78159.08717572037</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.77067137402712</v>
+        <v>59.75750207815142</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.36194006720393</v>
+        <v>81.76285065822691</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.12388824326296</v>
+        <v>73.95951894630649</v>
       </c>
       <c r="AD3" t="n">
-        <v>47770.67137402712</v>
+        <v>59757.50207815142</v>
       </c>
       <c r="AE3" t="n">
-        <v>65361.94006720393</v>
+        <v>81762.8506582269</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.154422740338331e-06</v>
+        <v>1.717728769318804e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>59123.88824326296</v>
+        <v>73959.51894630649</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.7473856056572</v>
+        <v>156.0678610406748</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.4720499713376</v>
+        <v>213.5389327038494</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.4845420443098</v>
+        <v>193.1590766704295</v>
       </c>
       <c r="AD2" t="n">
-        <v>137747.3856056572</v>
+        <v>156067.8610406748</v>
       </c>
       <c r="AE2" t="n">
-        <v>188472.0499713376</v>
+        <v>213538.9327038495</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.876573761416823e-06</v>
+        <v>9.695016785936252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.119791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>170484.5420443098</v>
+        <v>193159.0766704295</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.24401614878479</v>
+        <v>70.97271177710701</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.42852067315313</v>
+        <v>97.10799534846231</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.56165834928211</v>
+        <v>87.84014456435656</v>
       </c>
       <c r="AD2" t="n">
-        <v>60244.01614878479</v>
+        <v>70972.711777107</v>
       </c>
       <c r="AE2" t="n">
-        <v>82428.52067315314</v>
+        <v>97107.99534846231</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.255128692090413e-06</v>
+        <v>1.699964996026669e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.060416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>74561.65834928211</v>
+        <v>87840.14456435657</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.79638673628158</v>
+        <v>59.05769406505498</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.39712496032219</v>
+        <v>80.80534246135822</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.15571513956433</v>
+        <v>73.09339398787546</v>
       </c>
       <c r="AD2" t="n">
-        <v>47796.38673628158</v>
+        <v>59057.69406505498</v>
       </c>
       <c r="AE2" t="n">
-        <v>65397.12496032219</v>
+        <v>80805.34246135822</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.751798908374988e-06</v>
+        <v>1.733892494679082e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.870833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>59155.71513956433</v>
+        <v>73093.39398787546</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.70475854122336</v>
+        <v>58.96606586999676</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.27175522149292</v>
+        <v>80.67997272252894</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.04231051265135</v>
+        <v>72.97998936096249</v>
       </c>
       <c r="AD3" t="n">
-        <v>47704.75854122336</v>
+        <v>58966.06586999676</v>
       </c>
       <c r="AE3" t="n">
-        <v>65271.75522149293</v>
+        <v>80679.97272252894</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.793305688430878e-06</v>
+        <v>1.742115751996881e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.8625</v>
       </c>
       <c r="AH3" t="n">
-        <v>59042.31051265135</v>
+        <v>72979.98936096249</v>
       </c>
     </row>
   </sheetData>
